--- a/03_Hardware/Hardware.xlsx
+++ b/03_Hardware/Hardware.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stege\Documents\Studienarbeit\Raeucherofen\03_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5CB016-6C08-4E78-B57D-B779420D3289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E7FA8A-F3CB-4DD7-A85E-F73C45740609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gesamt" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t xml:space="preserve">Waveshare EXP-R63-126 </t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t>Kontaktsensor(Tür)</t>
+  </si>
+  <si>
+    <t>Hygrochip HYT-221</t>
+  </si>
+  <si>
+    <t>-40° - 120°</t>
+  </si>
+  <si>
+    <t>-50 °C to +150 °C</t>
+  </si>
+  <si>
+    <t>1-0.3 mA</t>
+  </si>
+  <si>
+    <t>IST AG 150 °C Pt Temperature Sensor Series</t>
+  </si>
+  <si>
+    <t>feuchtigkeit und temp.</t>
+  </si>
+  <si>
+    <t>Elektrolytischer Feuchtesensor EFS-10</t>
+  </si>
+  <si>
+    <t>0-60°</t>
+  </si>
+  <si>
+    <t>1v</t>
+  </si>
+  <si>
+    <t>0-50°</t>
   </si>
 </sst>
 </file>
@@ -456,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -558,43 +588,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F8DEC6-3F6C-48D4-8266-22BC68E59AA8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -607,36 +680,46 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">

--- a/03_Hardware/Hardware.xlsx
+++ b/03_Hardware/Hardware.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stege\Documents\Studienarbeit\Raeucherofen\03_Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulf\Documents\DHBW\Studienarbeit\Raeucherofen\03_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E7FA8A-F3CB-4DD7-A85E-F73C45740609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81D14C-A425-4E61-BCBD-7D91EB1C0DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gesamt" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Temperatursensor" sheetId="6" r:id="rId3"/>
     <sheet name="Flammensensor" sheetId="2" r:id="rId4"/>
     <sheet name="Feinstaubsensor" sheetId="3" r:id="rId5"/>
-    <sheet name="MicroController" sheetId="7" r:id="rId6"/>
+    <sheet name="Sensor-Tür" sheetId="8" r:id="rId6"/>
+    <sheet name="MicroController" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t xml:space="preserve">Waveshare EXP-R63-126 </t>
   </si>
@@ -165,12 +166,49 @@
   </si>
   <si>
     <t>0-50°</t>
+  </si>
+  <si>
+    <t>LM135 </t>
+  </si>
+  <si>
+    <t>-55 °C to +150 °C</t>
+  </si>
+  <si>
+    <t>15mA</t>
+  </si>
+  <si>
+    <t>NTC/PTC</t>
+  </si>
+  <si>
+    <t>50ct</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>nicht linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA </t>
+  </si>
+  <si>
+    <t>KY-026</t>
+  </si>
+  <si>
+    <t>3,3V-5V</t>
+  </si>
+  <si>
+    <t>Ansteuerung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,10 +238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,22 +527,22 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -528,12 +568,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -559,7 +599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -567,12 +607,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -591,17 +631,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -612,7 +652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -623,7 +663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -637,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -651,7 +691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -665,7 +705,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -677,99 +717,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81311B04-017B-40E6-B1E8-3DA302E89B97}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF142C2-7F2C-450D-9860-F3219BC8C5E0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -777,12 +857,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -795,16 +883,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -812,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -820,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -828,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -836,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -850,21 +938,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2F7026-4265-4E5A-903D-F415F42A6A1B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852D852-64A3-44EC-9F03-25CB995A5C3D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -878,7 +1001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -889,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -900,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -911,7 +1034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -922,7 +1045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -933,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -944,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>

--- a/03_Hardware/Hardware.xlsx
+++ b/03_Hardware/Hardware.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulf\Documents\DHBW\Studienarbeit\Raeucherofen\03_Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stege\Documents\Studienarbeit\Raeucherofen\03_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81D14C-A425-4E61-BCBD-7D91EB1C0DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCA1540-3E3B-40C8-A1C0-EDC02C1FD035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="684" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gesamt" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuchtigkeitssensor" sheetId="5" r:id="rId2"/>
-    <sheet name="Temperatursensor" sheetId="6" r:id="rId3"/>
-    <sheet name="Flammensensor" sheetId="2" r:id="rId4"/>
-    <sheet name="Feinstaubsensor" sheetId="3" r:id="rId5"/>
-    <sheet name="Sensor-Tür" sheetId="8" r:id="rId6"/>
-    <sheet name="MicroController" sheetId="7" r:id="rId7"/>
+    <sheet name="Konzept Heiß" sheetId="9" r:id="rId2"/>
+    <sheet name="Feuchtigkeitssensor" sheetId="5" r:id="rId3"/>
+    <sheet name="Temperatursensor" sheetId="6" r:id="rId4"/>
+    <sheet name="Flammensensor" sheetId="2" r:id="rId5"/>
+    <sheet name="Feinstaubsensor" sheetId="3" r:id="rId6"/>
+    <sheet name="Sensor-Tür" sheetId="8" r:id="rId7"/>
+    <sheet name="MicroController" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t xml:space="preserve">Waveshare EXP-R63-126 </t>
   </si>
@@ -199,6 +200,54 @@
   </si>
   <si>
     <t>Ansteuerung</t>
+  </si>
+  <si>
+    <t>bis 85</t>
+  </si>
+  <si>
+    <t>bis 60</t>
+  </si>
+  <si>
+    <t>bis 60 /120</t>
+  </si>
+  <si>
+    <t>bis 120/150</t>
+  </si>
+  <si>
+    <t>KY-026 (einzelne Photodiode (SFH 300 FA))</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>6 digital Pin</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>2,65+4,1</t>
+  </si>
+  <si>
+    <t>SS 495 A Hallsensor + Ferritmagnet</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>LCD Module</t>
+  </si>
+  <si>
+    <t>60 daher weglassen</t>
+  </si>
+  <si>
+    <t>21,1</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
+  </si>
+  <si>
+    <t>13 IO, 9 ADC, I2C, UART, SPI, Bluetooth, WLAN</t>
   </si>
 </sst>
 </file>
@@ -238,12 +287,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -527,22 +579,22 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -568,12 +620,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -599,7 +651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -607,12 +659,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -627,21 +691,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1F1FB9-E262-43B0-B7A2-EA171B52C7B9}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="5">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F8DEC6-3F6C-48D4-8266-22BC68E59AA8}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -652,7 +865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -663,7 +876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -677,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -691,7 +904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -705,7 +918,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -715,7 +928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81311B04-017B-40E6-B1E8-3DA302E89B97}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -723,14 +936,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -744,7 +957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -755,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -766,7 +979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -777,7 +990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -788,7 +1001,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -802,21 +1015,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF142C2-7F2C-450D-9860-F3219BC8C5E0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -827,7 +1040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -838,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -849,7 +1062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -857,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -868,7 +1081,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -878,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E32373E-786A-481E-9C1B-44DFD450650C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -886,13 +1099,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -900,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -908,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -916,7 +1129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -924,47 +1137,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2F7026-4265-4E5A-903D-F415F42A6A1B}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -973,21 +1151,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2F7026-4265-4E5A-903D-F415F42A6A1B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852D852-64A3-44EC-9F03-25CB995A5C3D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1001,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1012,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1067,7 +1280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>

--- a/03_Hardware/Hardware.xlsx
+++ b/03_Hardware/Hardware.xlsx
@@ -8,31 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stege\Documents\Studienarbeit\Raeucherofen\03_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCA1540-3E3B-40C8-A1C0-EDC02C1FD035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40ECB60-E64F-45B4-91CB-E5C697A0F771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="684" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gesamt" sheetId="1" r:id="rId1"/>
-    <sheet name="Konzept Heiß" sheetId="9" r:id="rId2"/>
-    <sheet name="Feuchtigkeitssensor" sheetId="5" r:id="rId3"/>
-    <sheet name="Temperatursensor" sheetId="6" r:id="rId4"/>
-    <sheet name="Flammensensor" sheetId="2" r:id="rId5"/>
-    <sheet name="Feinstaubsensor" sheetId="3" r:id="rId6"/>
-    <sheet name="Sensor-Tür" sheetId="8" r:id="rId7"/>
-    <sheet name="MicroController" sheetId="7" r:id="rId8"/>
+    <sheet name="Konzepte" sheetId="9" r:id="rId1"/>
+    <sheet name="Feuchtigkeitssensor" sheetId="5" r:id="rId2"/>
+    <sheet name="Temperatursensor" sheetId="6" r:id="rId3"/>
+    <sheet name="Flammensensor" sheetId="2" r:id="rId4"/>
+    <sheet name="Feinstaubsensor" sheetId="3" r:id="rId5"/>
+    <sheet name="Sensor-Tür" sheetId="8" r:id="rId6"/>
+    <sheet name="MicroController" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t xml:space="preserve">Waveshare EXP-R63-126 </t>
   </si>
@@ -85,9 +93,6 @@
     <t>digital Pin</t>
   </si>
   <si>
-    <t>LCD?</t>
-  </si>
-  <si>
     <t>Feuchtigkeitssensor</t>
   </si>
   <si>
@@ -130,12 +135,6 @@
     <t>ARD UNO</t>
   </si>
   <si>
-    <t>6 Pins</t>
-  </si>
-  <si>
-    <t>1 (UART)</t>
-  </si>
-  <si>
     <t>Kontaktsensor(Tür)</t>
   </si>
   <si>
@@ -202,64 +201,75 @@
     <t>Ansteuerung</t>
   </si>
   <si>
-    <t>bis 85</t>
-  </si>
-  <si>
-    <t>bis 60</t>
-  </si>
-  <si>
-    <t>bis 60 /120</t>
-  </si>
-  <si>
-    <t>bis 120/150</t>
-  </si>
-  <si>
     <t>KY-026 (einzelne Photodiode (SFH 300 FA))</t>
   </si>
   <si>
-    <t>4,8</t>
-  </si>
-  <si>
     <t>6 digital Pin</t>
   </si>
   <si>
     <t>LCD</t>
   </si>
   <si>
-    <t>2,65+4,1</t>
-  </si>
-  <si>
     <t>SS 495 A Hallsensor + Ferritmagnet</t>
   </si>
   <si>
-    <t>6,1</t>
-  </si>
-  <si>
     <t>LCD Module</t>
   </si>
   <si>
-    <t>60 daher weglassen</t>
-  </si>
-  <si>
-    <t>21,1</t>
-  </si>
-  <si>
     <t>irrelevant</t>
   </si>
   <si>
     <t>13 IO, 9 ADC, I2C, UART, SPI, Bluetooth, WLAN</t>
+  </si>
+  <si>
+    <t>KONZEPT HEISS</t>
+  </si>
+  <si>
+    <t>KONZEPT KALT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY-026 </t>
+  </si>
+  <si>
+    <t>SS 495 A Hallsensor + Magnet</t>
+  </si>
+  <si>
+    <t>ges</t>
+  </si>
+  <si>
+    <t>60 °C</t>
+  </si>
+  <si>
+    <t>100 °C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00\°\C"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -284,10 +294,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -296,9 +307,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,422 +599,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1F1FB9-E262-43B0-B7A2-EA171B52C7B9}">
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>120</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <v>6.75</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="J8" s="9">
+        <f>SUM(C8:I8)</f>
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C16">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="C17" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="D17" s="9">
+        <v>25</v>
+      </c>
+      <c r="E17" s="12">
         <v>9</v>
       </c>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="I17" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="J17" s="9">
+        <f>SUM(C17:I17)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="5">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1F1FB9-E262-43B0-B7A2-EA171B52C7B9}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F8DEC6-3F6C-48D4-8266-22BC68E59AA8}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5">
-        <v>120</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="5">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
+      <c r="D5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F8DEC6-3F6C-48D4-8266-22BC68E59AA8}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81311B04-017B-40E6-B1E8-3DA302E89B97}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -998,15 +1072,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF142C2-7F2C-450D-9860-F3219BC8C5E0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1023,13 +1097,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1037,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1059,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1081,9 +1155,68 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E32373E-786A-481E-9C1B-44DFD450650C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1092,65 +1225,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E32373E-786A-481E-9C1B-44DFD450650C}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2F7026-4265-4E5A-903D-F415F42A6A1B}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1158,24 +1232,24 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7852D852-64A3-44EC-9F03-25CB995A5C3D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1193,30 +1267,30 @@
       <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1225,9 +1299,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1236,51 +1310,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
       </c>
       <c r="B7">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>

--- a/03_Hardware/Hardware.xlsx
+++ b/03_Hardware/Hardware.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stege\Documents\Studienarbeit\Raeucherofen\03_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40ECB60-E64F-45B4-91CB-E5C697A0F771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2117DC-DE3A-4387-8472-78E1B746218C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t xml:space="preserve">KY-026 </t>
   </si>
   <si>
-    <t>SS 495 A Hallsensor + Magnet</t>
-  </si>
-  <si>
     <t>ges</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>100 °C</t>
+  </si>
+  <si>
+    <t>PS-3150 Magnetschalter</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.00\°\C"/>
+    <numFmt numFmtId="164" formatCode="0.00\°\C"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -304,21 +304,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -603,7 +603,7 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -649,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -659,10 +659,10 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="12"/>
       <c r="G4" t="s">
         <v>56</v>
       </c>
@@ -680,10 +680,10 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="12"/>
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -695,8 +695,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -705,10 +705,10 @@
       <c r="C7">
         <v>100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="12">
         <v>120</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="12"/>
       <c r="G7">
         <v>150</v>
       </c>
@@ -718,38 +718,38 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>66</v>
+      <c r="J7" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>4.8</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="D8" s="8"/>
+      <c r="E8" s="13">
         <v>39</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
+      <c r="F8" s="13"/>
+      <c r="G8" s="9">
         <v>6.75</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>6.1</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>21.1</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f>SUM(C8:I8)</f>
         <v>77.75</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
@@ -835,8 +835,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -851,11 +851,11 @@
       <c r="E16">
         <v>60</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>150</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -863,42 +863,42 @@
       <c r="I16" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>65</v>
+      <c r="J16" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>4.8</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>25</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>9</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>4</v>
       </c>
-      <c r="G17" s="11">
-        <v>3</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="G17" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H17" s="8">
         <v>6.1</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>21.1</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f>SUM(C17:I17)</f>
-        <v>73</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="13"/>
+      <c r="F25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
